--- a/経路検索API仕様.xlsx
+++ b/経路検索API仕様.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2023\lbk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D869E5-F52F-4945-9CDA-D2D8CC64B3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05ACC1C-921C-44F8-B3E7-411BA24A7007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13550" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{2870BB2C-B2BE-4FA8-B5BC-F6E1C0CCF9A4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>仕様 - 経路検索API</t>
     <phoneticPr fontId="1"/>
@@ -264,12 +264,20 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t xml:space="preserve">URI : </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://localhost:7081/travelsearch/startToEnd</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +307,15 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -361,12 +378,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -376,6 +396,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -385,21 +417,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -407,19 +430,20 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -433,6 +457,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>241302</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>511828</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>644525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFE87244-ED99-9D9D-16B1-14786648CF9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5041902" y="1447801"/>
+          <a:ext cx="3693176" cy="1368424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>34926</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>222249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>57136</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB70DB17-1BC2-1D8C-DD3B-82408501D93E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="720726" y="10782299"/>
+          <a:ext cx="7508874" cy="7797787"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -732,497 +849,512 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF65CEC-49AF-4FA7-984A-702E983535EF}">
-  <dimension ref="B3:L35"/>
+  <dimension ref="B3:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="3"/>
+    </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="2" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="2:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="2:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="8" t="s">
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="1" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="2:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="8" t="s">
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="2:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="1" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="G14" s="13"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B18" s="16" t="s">
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B19" s="16" t="s">
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B20" s="16" t="s">
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B21" s="16" t="s">
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B22" s="16" t="s">
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B23" s="16" t="s">
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B24" s="16" t="s">
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B25" s="16" t="s">
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B26" s="16" t="s">
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B28" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B27" s="16" t="s">
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B29" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B28" s="16" t="s">
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16" t="s">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B29" s="16" t="s">
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16" t="s">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B30" s="16" t="s">
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16" t="s">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B31" s="16" t="s">
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B32" s="16" t="s">
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B33" s="16" t="s">
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B35" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B34" s="16" t="s">
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B36" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H27:L27"/>
     <mergeCell ref="H28:L28"/>
-    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="H37:L37"/>
     <mergeCell ref="H30:L30"/>
     <mergeCell ref="H31:L31"/>
     <mergeCell ref="H32:L32"/>
     <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H35:L35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{8D297CB4-3189-4385-AC66-F4E7B0A4D798}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>